--- a/docs/CodeSystem-fh-code-system.xlsx
+++ b/docs/CodeSystem-fh-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-04T17:26:31-05:00</t>
+    <t>2023-11-13T08:13:08-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
